--- a/Raw Data/CCDB data.xlsx
+++ b/Raw Data/CCDB data.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="340">
   <si>
     <t>Micaria</t>
   </si>
@@ -1036,6 +1036,15 @@
   </si>
   <si>
     <t>CaSL-A5-O3-PT-2</t>
+  </si>
+  <si>
+    <t>CaSL-A5-S11-PT-1</t>
+  </si>
+  <si>
+    <t>Drassylus</t>
+  </si>
+  <si>
+    <t>CaSL-A5-S11-PT-2</t>
   </si>
 </sst>
 </file>
@@ -1387,10 +1396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD158"/>
+  <dimension ref="A1:XFD161"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B167" sqref="B167"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="C110" sqref="C110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1431,7 +1440,7 @@
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="L2">
         <f>COUNTA(C:C)-1</f>
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N2" t="s">
         <v>264</v>
@@ -19301,93 +19310,82 @@
         <v>31</v>
       </c>
     </row>
-    <row r="105" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="106" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A107" t="s">
-        <v>253</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>22</v>
+    <row r="105" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C105" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>338</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A108" t="s">
-        <v>253</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>45</v>
+    <row r="106" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C106" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>261</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A109" t="s">
-        <v>253</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>22</v>
-      </c>
+    <row r="107" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="H107" s="1"/>
     </row>
+    <row r="108" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="H108" s="1"/>
+    </row>
+    <row r="109" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>253</v>
       </c>
-      <c r="C110" t="s">
-        <v>134</v>
-      </c>
-      <c r="D110" t="s">
+      <c r="C110" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D110" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E110" t="s">
-        <v>27</v>
-      </c>
-      <c r="H110" t="s">
-        <v>135</v>
+      <c r="E110" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>253</v>
       </c>
-      <c r="C111" t="s">
-        <v>173</v>
-      </c>
-      <c r="D111" t="s">
-        <v>23</v>
-      </c>
-      <c r="E111" t="s">
-        <v>148</v>
+      <c r="C111" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>253</v>
       </c>
-      <c r="C112" t="s">
-        <v>196</v>
-      </c>
-      <c r="D112" t="s">
-        <v>9</v>
-      </c>
-      <c r="E112" t="s">
-        <v>8</v>
-      </c>
-      <c r="H112" t="s">
-        <v>169</v>
+      <c r="C112" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.35">
@@ -19395,13 +19393,16 @@
         <v>253</v>
       </c>
       <c r="C113" t="s">
-        <v>211</v>
+        <v>134</v>
       </c>
       <c r="D113" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="E113" t="s">
-        <v>212</v>
+        <v>27</v>
+      </c>
+      <c r="H113" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.35">
@@ -19409,13 +19410,13 @@
         <v>253</v>
       </c>
       <c r="C114" t="s">
-        <v>216</v>
+        <v>173</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E114" t="s">
-        <v>8</v>
+        <v>148</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.35">
@@ -19423,13 +19424,16 @@
         <v>253</v>
       </c>
       <c r="C115" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="D115" t="s">
-        <v>110</v>
+        <v>9</v>
       </c>
       <c r="E115" t="s">
-        <v>218</v>
+        <v>8</v>
+      </c>
+      <c r="H115" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.35">
@@ -19437,29 +19441,26 @@
         <v>253</v>
       </c>
       <c r="C116" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="D116" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="E116" t="s">
-        <v>190</v>
-      </c>
-      <c r="H116" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>253</v>
       </c>
-      <c r="C117" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="D117" s="6" t="s">
+      <c r="C117" t="s">
+        <v>216</v>
+      </c>
+      <c r="D117" t="s">
         <v>9</v>
       </c>
-      <c r="E117" s="6" t="s">
+      <c r="E117" t="s">
         <v>8</v>
       </c>
     </row>
@@ -19468,104 +19469,89 @@
         <v>253</v>
       </c>
       <c r="C118" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="D118" t="s">
-        <v>23</v>
+        <v>110</v>
       </c>
       <c r="E118" t="s">
-        <v>190</v>
-      </c>
-      <c r="H118" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>253</v>
       </c>
-      <c r="C119" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="D119" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E119" s="6" t="s">
-        <v>8</v>
+      <c r="C119" t="s">
+        <v>219</v>
+      </c>
+      <c r="D119" t="s">
+        <v>23</v>
+      </c>
+      <c r="E119" t="s">
+        <v>190</v>
+      </c>
+      <c r="H119" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>253</v>
       </c>
-      <c r="C120" t="s">
-        <v>245</v>
-      </c>
-      <c r="D120" t="s">
+      <c r="C120" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D120" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E120" t="s">
-        <v>39</v>
+      <c r="E120" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>253</v>
+      </c>
+      <c r="C121" t="s">
+        <v>241</v>
+      </c>
+      <c r="D121" t="s">
+        <v>23</v>
+      </c>
+      <c r="E121" t="s">
+        <v>190</v>
+      </c>
+      <c r="H121" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>253</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="D122" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E122" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C123" t="s">
-        <v>138</v>
+        <v>245</v>
       </c>
       <c r="D123" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="E123" t="s">
-        <v>22</v>
-      </c>
-      <c r="H123" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A124" t="s">
-        <v>254</v>
-      </c>
-      <c r="C124" t="s">
-        <v>142</v>
-      </c>
-      <c r="D124" t="s">
-        <v>110</v>
-      </c>
-      <c r="E124" t="s">
-        <v>143</v>
-      </c>
-      <c r="F124" t="s">
-        <v>144</v>
-      </c>
-      <c r="G124" t="s">
-        <v>145</v>
-      </c>
-      <c r="H124" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A125" t="s">
-        <v>254</v>
-      </c>
-      <c r="C125" t="s">
-        <v>147</v>
-      </c>
-      <c r="D125" t="s">
-        <v>23</v>
-      </c>
-      <c r="E125" t="s">
-        <v>148</v>
-      </c>
-      <c r="H125" t="s">
-        <v>149</v>
-      </c>
-      <c r="I125" t="s">
-        <v>150</v>
+        <v>39</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.35">
@@ -19573,16 +19559,16 @@
         <v>254</v>
       </c>
       <c r="C126" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="D126" t="s">
         <v>23</v>
       </c>
       <c r="E126" t="s">
-        <v>166</v>
+        <v>22</v>
       </c>
       <c r="H126" t="s">
-        <v>167</v>
+        <v>139</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.35">
@@ -19590,19 +19576,22 @@
         <v>254</v>
       </c>
       <c r="C127" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>110</v>
       </c>
       <c r="E127" t="s">
-        <v>8</v>
+        <v>143</v>
+      </c>
+      <c r="F127" t="s">
+        <v>144</v>
+      </c>
+      <c r="G127" t="s">
+        <v>145</v>
       </c>
       <c r="H127" t="s">
-        <v>169</v>
-      </c>
-      <c r="I127" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.35">
@@ -19610,7 +19599,7 @@
         <v>254</v>
       </c>
       <c r="C128" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="D128" t="s">
         <v>23</v>
@@ -19618,213 +19607,231 @@
       <c r="E128" t="s">
         <v>148</v>
       </c>
+      <c r="H128" t="s">
+        <v>149</v>
+      </c>
+      <c r="I128" t="s">
+        <v>150</v>
+      </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>254</v>
       </c>
       <c r="C129" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="D129" t="s">
-        <v>164</v>
+        <v>23</v>
       </c>
       <c r="E129" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="H129" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>254</v>
       </c>
       <c r="C130" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="D130" t="s">
-        <v>117</v>
+        <v>9</v>
       </c>
       <c r="E130" t="s">
-        <v>118</v>
-      </c>
-      <c r="F130" t="s">
-        <v>119</v>
+        <v>8</v>
+      </c>
+      <c r="H130" t="s">
+        <v>169</v>
+      </c>
+      <c r="I130" t="s">
+        <v>170</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>254</v>
       </c>
       <c r="C131" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="D131" t="s">
-        <v>117</v>
+        <v>23</v>
       </c>
       <c r="E131" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>254</v>
       </c>
       <c r="C132" t="s">
+        <v>181</v>
+      </c>
+      <c r="D132" t="s">
+        <v>164</v>
+      </c>
+      <c r="E132" t="s">
+        <v>182</v>
+      </c>
+      <c r="H132" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>254</v>
+      </c>
+      <c r="C133" t="s">
+        <v>192</v>
+      </c>
+      <c r="D133" t="s">
+        <v>117</v>
+      </c>
+      <c r="E133" t="s">
+        <v>118</v>
+      </c>
+      <c r="F133" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>254</v>
+      </c>
+      <c r="C134" t="s">
+        <v>194</v>
+      </c>
+      <c r="D134" t="s">
+        <v>117</v>
+      </c>
+      <c r="E134" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>254</v>
+      </c>
+      <c r="C135" t="s">
         <v>208</v>
       </c>
-      <c r="D132" t="s">
+      <c r="D135" t="s">
         <v>23</v>
       </c>
-      <c r="E132" t="s">
+      <c r="E135" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A134" t="s">
-        <v>255</v>
-      </c>
-      <c r="C134" t="s">
-        <v>140</v>
-      </c>
-      <c r="D134" t="s">
-        <v>23</v>
-      </c>
-      <c r="E134" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A135" t="s">
-        <v>255</v>
-      </c>
-      <c r="C135" t="s">
-        <v>195</v>
-      </c>
-      <c r="D135" t="s">
-        <v>31</v>
-      </c>
-      <c r="E135" t="s">
-        <v>30</v>
-      </c>
-      <c r="H135" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A136" t="s">
-        <v>255</v>
-      </c>
-      <c r="C136" t="s">
-        <v>199</v>
-      </c>
-      <c r="D136" t="s">
-        <v>23</v>
-      </c>
-      <c r="E136" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>255</v>
       </c>
       <c r="C137" t="s">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="D137" t="s">
-        <v>110</v>
+        <v>23</v>
       </c>
       <c r="E137" t="s">
-        <v>201</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>255</v>
       </c>
-      <c r="C138" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="D138" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E138" s="4" t="s">
-        <v>22</v>
+      <c r="C138" t="s">
+        <v>195</v>
+      </c>
+      <c r="D138" t="s">
+        <v>31</v>
+      </c>
+      <c r="E138" t="s">
+        <v>30</v>
+      </c>
+      <c r="H138" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>255</v>
       </c>
       <c r="C139" t="s">
+        <v>199</v>
+      </c>
+      <c r="D139" t="s">
+        <v>23</v>
+      </c>
+      <c r="E139" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>255</v>
+      </c>
+      <c r="C140" t="s">
+        <v>200</v>
+      </c>
+      <c r="D140" t="s">
+        <v>110</v>
+      </c>
+      <c r="E140" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>255</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>255</v>
+      </c>
+      <c r="C142" t="s">
         <v>233</v>
       </c>
-      <c r="D139" t="s">
+      <c r="D142" t="s">
         <v>117</v>
       </c>
-      <c r="E139" t="s">
+      <c r="E142" t="s">
         <v>118</v>
       </c>
-      <c r="F139" t="s">
+      <c r="F142" t="s">
         <v>119</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A142" t="s">
-        <v>256</v>
-      </c>
-      <c r="C142" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="D142" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="E142" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="F142" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A143" t="s">
-        <v>256</v>
-      </c>
-      <c r="C143" t="s">
-        <v>155</v>
-      </c>
-      <c r="D143" t="s">
-        <v>23</v>
-      </c>
-      <c r="E143" t="s">
-        <v>148</v>
-      </c>
-      <c r="H143" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A144" t="s">
-        <v>256</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>256</v>
       </c>
-      <c r="C145" t="s">
-        <v>163</v>
-      </c>
-      <c r="D145" t="s">
-        <v>164</v>
+      <c r="C145" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E145" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F145" s="4" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.35">
@@ -19832,36 +19839,27 @@
         <v>256</v>
       </c>
       <c r="C146" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E146" t="s">
-        <v>8</v>
+        <v>148</v>
       </c>
       <c r="H146" t="s">
-        <v>169</v>
-      </c>
-      <c r="I146" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>256</v>
       </c>
-      <c r="C147" t="s">
-        <v>179</v>
-      </c>
-      <c r="D147" t="s">
-        <v>117</v>
-      </c>
-      <c r="E147" t="s">
-        <v>118</v>
-      </c>
-      <c r="F147" t="s">
-        <v>152</v>
+      <c r="C147" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.35">
@@ -19869,7 +19867,7 @@
         <v>256</v>
       </c>
       <c r="C148" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="D148" t="s">
         <v>164</v>
@@ -19880,10 +19878,19 @@
         <v>256</v>
       </c>
       <c r="C149" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="D149" t="s">
-        <v>45</v>
+        <v>9</v>
+      </c>
+      <c r="E149" t="s">
+        <v>8</v>
+      </c>
+      <c r="H149" t="s">
+        <v>169</v>
+      </c>
+      <c r="I149" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.35">
@@ -19891,16 +19898,16 @@
         <v>256</v>
       </c>
       <c r="C150" t="s">
-        <v>221</v>
+        <v>179</v>
       </c>
       <c r="D150" t="s">
-        <v>23</v>
+        <v>117</v>
       </c>
       <c r="E150" t="s">
-        <v>148</v>
-      </c>
-      <c r="H150" t="s">
-        <v>222</v>
+        <v>118</v>
+      </c>
+      <c r="F150" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.35">
@@ -19908,24 +19915,21 @@
         <v>256</v>
       </c>
       <c r="C151" t="s">
-        <v>227</v>
+        <v>180</v>
       </c>
       <c r="D151" t="s">
-        <v>27</v>
+        <v>164</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>256</v>
       </c>
-      <c r="C152" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>25</v>
+      <c r="C152" t="s">
+        <v>184</v>
+      </c>
+      <c r="D152" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.35">
@@ -19933,10 +19937,16 @@
         <v>256</v>
       </c>
       <c r="C153" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="D153" t="s">
-        <v>114</v>
+        <v>23</v>
+      </c>
+      <c r="E153" t="s">
+        <v>148</v>
+      </c>
+      <c r="H153" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.35">
@@ -19944,46 +19954,82 @@
         <v>256</v>
       </c>
       <c r="C154" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="D154" t="s">
-        <v>117</v>
-      </c>
-      <c r="E154" t="s">
-        <v>133</v>
+        <v>27</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>256</v>
       </c>
-      <c r="C155" t="s">
-        <v>246</v>
-      </c>
-      <c r="D155" t="s">
+      <c r="C155" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>256</v>
+      </c>
+      <c r="C156" t="s">
+        <v>231</v>
+      </c>
+      <c r="D156" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>256</v>
+      </c>
+      <c r="C157" t="s">
+        <v>243</v>
+      </c>
+      <c r="D157" t="s">
         <v>117</v>
       </c>
-      <c r="E155" t="s">
-        <v>118</v>
-      </c>
-      <c r="F155" t="s">
-        <v>152</v>
+      <c r="E157" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
+        <v>256</v>
+      </c>
+      <c r="C158" t="s">
+        <v>246</v>
+      </c>
+      <c r="D158" t="s">
+        <v>117</v>
+      </c>
+      <c r="E158" t="s">
+        <v>118</v>
+      </c>
+      <c r="F158" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
         <v>257</v>
       </c>
-      <c r="C158" s="4" t="s">
+      <c r="C161" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="D158" s="4" t="s">
+      <c r="D161" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="E158" s="4" t="s">
+      <c r="E161" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="F158" s="4" t="s">
+      <c r="F161" s="4" t="s">
         <v>152</v>
       </c>
     </row>

--- a/Raw Data/CCDB data.xlsx
+++ b/Raw Data/CCDB data.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="346">
   <si>
     <t>Micaria</t>
   </si>
@@ -1045,6 +1045,24 @@
   </si>
   <si>
     <t>CaSL-A5-S11-PT-2</t>
+  </si>
+  <si>
+    <t>CaSL-A5-S10-PT-1</t>
+  </si>
+  <si>
+    <t>CaSL-A5-S10-PT-2</t>
+  </si>
+  <si>
+    <t>Therevidae</t>
+  </si>
+  <si>
+    <t>CaSL-A5-S8-PT-1</t>
+  </si>
+  <si>
+    <t>Silphidae</t>
+  </si>
+  <si>
+    <t>Nicrophorus</t>
   </si>
 </sst>
 </file>
@@ -1396,10 +1414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD161"/>
+  <dimension ref="A1:XFD163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="C110" sqref="C110"/>
+    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="A106" sqref="A106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1440,7 +1458,7 @@
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="L2">
         <f>COUNTA(C:C)-1</f>
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="N2" t="s">
         <v>264</v>
@@ -19311,6 +19329,9 @@
       </c>
     </row>
     <row r="105" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="10" t="s">
+        <v>252</v>
+      </c>
       <c r="C105" s="10" t="s">
         <v>337</v>
       </c>
@@ -19325,6 +19346,9 @@
       </c>
     </row>
     <row r="106" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="10" t="s">
+        <v>252</v>
+      </c>
       <c r="C106" s="10" t="s">
         <v>339</v>
       </c>
@@ -19339,47 +19363,62 @@
       </c>
     </row>
     <row r="107" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="D107" s="1"/>
-      <c r="E107" s="1"/>
+      <c r="A107" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="C107" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E107" s="10" t="s">
+        <v>342</v>
+      </c>
       <c r="H107" s="1"/>
     </row>
     <row r="108" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="D108" s="1"/>
+      <c r="A108" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="C108" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="E108" s="1"/>
       <c r="H108" s="1"/>
     </row>
-    <row r="109" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A110" t="s">
-        <v>253</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>22</v>
+    <row r="109" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="C109" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>345</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A111" t="s">
-        <v>253</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>45</v>
-      </c>
+    <row r="110" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+      <c r="H110" s="1"/>
     </row>
+    <row r="111" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>253</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>23</v>
@@ -19388,74 +19427,68 @@
         <v>22</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>253</v>
       </c>
-      <c r="C113" t="s">
-        <v>134</v>
-      </c>
-      <c r="D113" t="s">
-        <v>23</v>
-      </c>
-      <c r="E113" t="s">
-        <v>27</v>
-      </c>
-      <c r="H113" t="s">
-        <v>135</v>
+      <c r="C113" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>253</v>
       </c>
-      <c r="C114" t="s">
-        <v>173</v>
-      </c>
-      <c r="D114" t="s">
+      <c r="C114" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E114" t="s">
-        <v>148</v>
+      <c r="E114" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>253</v>
       </c>
       <c r="C115" t="s">
-        <v>196</v>
+        <v>134</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E115" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="H115" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>253</v>
       </c>
       <c r="C116" t="s">
-        <v>211</v>
+        <v>173</v>
       </c>
       <c r="D116" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="E116" t="s">
-        <v>212</v>
+        <v>148</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>253</v>
       </c>
       <c r="C117" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="D117" t="s">
         <v>9</v>
@@ -19463,58 +19496,58 @@
       <c r="E117" t="s">
         <v>8</v>
       </c>
+      <c r="H117" t="s">
+        <v>169</v>
+      </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>253</v>
       </c>
       <c r="C118" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D118" t="s">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="E118" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>253</v>
       </c>
       <c r="C119" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D119" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="E119" t="s">
-        <v>190</v>
-      </c>
-      <c r="H119" t="s">
-        <v>220</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>253</v>
       </c>
-      <c r="C120" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="D120" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E120" s="6" t="s">
-        <v>8</v>
+      <c r="C120" t="s">
+        <v>217</v>
+      </c>
+      <c r="D120" t="s">
+        <v>110</v>
+      </c>
+      <c r="E120" t="s">
+        <v>218</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>253</v>
       </c>
       <c r="C121" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="D121" t="s">
         <v>23</v>
@@ -19523,15 +19556,15 @@
         <v>190</v>
       </c>
       <c r="H121" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>253</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="D122" s="6" t="s">
         <v>9</v>
@@ -19540,78 +19573,66 @@
         <v>8</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>253</v>
       </c>
       <c r="C123" t="s">
+        <v>241</v>
+      </c>
+      <c r="D123" t="s">
+        <v>23</v>
+      </c>
+      <c r="E123" t="s">
+        <v>190</v>
+      </c>
+      <c r="H123" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>253</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E124" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>253</v>
+      </c>
+      <c r="C125" t="s">
         <v>245</v>
       </c>
-      <c r="D123" t="s">
+      <c r="D125" t="s">
         <v>9</v>
       </c>
-      <c r="E123" t="s">
+      <c r="E125" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A126" t="s">
-        <v>254</v>
-      </c>
-      <c r="C126" t="s">
-        <v>138</v>
-      </c>
-      <c r="D126" t="s">
-        <v>23</v>
-      </c>
-      <c r="E126" t="s">
-        <v>22</v>
-      </c>
-      <c r="H126" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A127" t="s">
-        <v>254</v>
-      </c>
-      <c r="C127" t="s">
-        <v>142</v>
-      </c>
-      <c r="D127" t="s">
-        <v>110</v>
-      </c>
-      <c r="E127" t="s">
-        <v>143</v>
-      </c>
-      <c r="F127" t="s">
-        <v>144</v>
-      </c>
-      <c r="G127" t="s">
-        <v>145</v>
-      </c>
-      <c r="H127" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>254</v>
       </c>
       <c r="C128" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D128" t="s">
         <v>23</v>
       </c>
       <c r="E128" t="s">
-        <v>148</v>
+        <v>22</v>
       </c>
       <c r="H128" t="s">
-        <v>149</v>
-      </c>
-      <c r="I128" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.35">
@@ -19619,16 +19640,22 @@
         <v>254</v>
       </c>
       <c r="C129" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="D129" t="s">
-        <v>23</v>
+        <v>110</v>
       </c>
       <c r="E129" t="s">
-        <v>166</v>
+        <v>143</v>
+      </c>
+      <c r="F129" t="s">
+        <v>144</v>
+      </c>
+      <c r="G129" t="s">
+        <v>145</v>
       </c>
       <c r="H129" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.35">
@@ -19636,19 +19663,19 @@
         <v>254</v>
       </c>
       <c r="C130" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E130" t="s">
-        <v>8</v>
+        <v>148</v>
       </c>
       <c r="H130" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="I130" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.35">
@@ -19656,13 +19683,16 @@
         <v>254</v>
       </c>
       <c r="C131" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D131" t="s">
         <v>23</v>
       </c>
       <c r="E131" t="s">
-        <v>148</v>
+        <v>166</v>
+      </c>
+      <c r="H131" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.35">
@@ -19670,16 +19700,19 @@
         <v>254</v>
       </c>
       <c r="C132" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="D132" t="s">
-        <v>164</v>
+        <v>9</v>
       </c>
       <c r="E132" t="s">
-        <v>182</v>
+        <v>8</v>
       </c>
       <c r="H132" t="s">
-        <v>183</v>
+        <v>169</v>
+      </c>
+      <c r="I132" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.35">
@@ -19687,16 +19720,13 @@
         <v>254</v>
       </c>
       <c r="C133" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="D133" t="s">
-        <v>117</v>
+        <v>23</v>
       </c>
       <c r="E133" t="s">
-        <v>118</v>
-      </c>
-      <c r="F133" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.35">
@@ -19704,13 +19734,16 @@
         <v>254</v>
       </c>
       <c r="C134" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="D134" t="s">
-        <v>117</v>
+        <v>164</v>
       </c>
       <c r="E134" t="s">
-        <v>118</v>
+        <v>182</v>
+      </c>
+      <c r="H134" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.35">
@@ -19718,44 +19751,44 @@
         <v>254</v>
       </c>
       <c r="C135" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="D135" t="s">
-        <v>23</v>
+        <v>117</v>
       </c>
       <c r="E135" t="s">
-        <v>22</v>
+        <v>118</v>
+      </c>
+      <c r="F135" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>254</v>
+      </c>
+      <c r="C136" t="s">
+        <v>194</v>
+      </c>
+      <c r="D136" t="s">
+        <v>117</v>
+      </c>
+      <c r="E136" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C137" t="s">
-        <v>140</v>
+        <v>208</v>
       </c>
       <c r="D137" t="s">
         <v>23</v>
       </c>
       <c r="E137" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A138" t="s">
-        <v>255</v>
-      </c>
-      <c r="C138" t="s">
-        <v>195</v>
-      </c>
-      <c r="D138" t="s">
-        <v>31</v>
-      </c>
-      <c r="E138" t="s">
-        <v>30</v>
-      </c>
-      <c r="H138" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.35">
@@ -19763,7 +19796,7 @@
         <v>255</v>
       </c>
       <c r="C139" t="s">
-        <v>199</v>
+        <v>140</v>
       </c>
       <c r="D139" t="s">
         <v>23</v>
@@ -19777,26 +19810,29 @@
         <v>255</v>
       </c>
       <c r="C140" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D140" t="s">
-        <v>110</v>
+        <v>31</v>
       </c>
       <c r="E140" t="s">
-        <v>201</v>
+        <v>30</v>
+      </c>
+      <c r="H140" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>255</v>
       </c>
-      <c r="C141" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="D141" s="4" t="s">
+      <c r="C141" t="s">
+        <v>199</v>
+      </c>
+      <c r="D141" t="s">
         <v>23</v>
       </c>
-      <c r="E141" s="4" t="s">
+      <c r="E141" t="s">
         <v>22</v>
       </c>
     </row>
@@ -19805,61 +19841,61 @@
         <v>255</v>
       </c>
       <c r="C142" t="s">
+        <v>200</v>
+      </c>
+      <c r="D142" t="s">
+        <v>110</v>
+      </c>
+      <c r="E142" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>255</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E143" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>255</v>
+      </c>
+      <c r="C144" t="s">
         <v>233</v>
       </c>
-      <c r="D142" t="s">
+      <c r="D144" t="s">
         <v>117</v>
       </c>
-      <c r="E142" t="s">
+      <c r="E144" t="s">
         <v>118</v>
       </c>
-      <c r="F142" t="s">
+      <c r="F144" t="s">
         <v>119</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A145" t="s">
-        <v>256</v>
-      </c>
-      <c r="C145" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="D145" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="E145" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="F145" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A146" t="s">
-        <v>256</v>
-      </c>
-      <c r="C146" t="s">
-        <v>155</v>
-      </c>
-      <c r="D146" t="s">
-        <v>23</v>
-      </c>
-      <c r="E146" t="s">
-        <v>148</v>
-      </c>
-      <c r="H146" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>256</v>
       </c>
-      <c r="C147" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>45</v>
+      <c r="C147" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F147" s="4" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.35">
@@ -19867,30 +19903,27 @@
         <v>256</v>
       </c>
       <c r="C148" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="D148" t="s">
-        <v>164</v>
+        <v>23</v>
+      </c>
+      <c r="E148" t="s">
+        <v>148</v>
+      </c>
+      <c r="H148" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>256</v>
       </c>
-      <c r="C149" t="s">
-        <v>172</v>
-      </c>
-      <c r="D149" t="s">
-        <v>9</v>
-      </c>
-      <c r="E149" t="s">
-        <v>8</v>
-      </c>
-      <c r="H149" t="s">
-        <v>169</v>
-      </c>
-      <c r="I149" t="s">
-        <v>170</v>
+      <c r="C149" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.35">
@@ -19898,16 +19931,10 @@
         <v>256</v>
       </c>
       <c r="C150" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="D150" t="s">
-        <v>117</v>
-      </c>
-      <c r="E150" t="s">
-        <v>118</v>
-      </c>
-      <c r="F150" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.35">
@@ -19915,10 +19942,19 @@
         <v>256</v>
       </c>
       <c r="C151" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D151" t="s">
-        <v>164</v>
+        <v>9</v>
+      </c>
+      <c r="E151" t="s">
+        <v>8</v>
+      </c>
+      <c r="H151" t="s">
+        <v>169</v>
+      </c>
+      <c r="I151" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.35">
@@ -19926,10 +19962,16 @@
         <v>256</v>
       </c>
       <c r="C152" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D152" t="s">
-        <v>45</v>
+        <v>117</v>
+      </c>
+      <c r="E152" t="s">
+        <v>118</v>
+      </c>
+      <c r="F152" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.35">
@@ -19937,16 +19979,10 @@
         <v>256</v>
       </c>
       <c r="C153" t="s">
-        <v>221</v>
+        <v>180</v>
       </c>
       <c r="D153" t="s">
-        <v>23</v>
-      </c>
-      <c r="E153" t="s">
-        <v>148</v>
-      </c>
-      <c r="H153" t="s">
-        <v>222</v>
+        <v>164</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.35">
@@ -19954,24 +19990,27 @@
         <v>256</v>
       </c>
       <c r="C154" t="s">
-        <v>227</v>
+        <v>184</v>
       </c>
       <c r="D154" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>256</v>
       </c>
-      <c r="C155" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="D155" s="2" t="s">
+      <c r="C155" t="s">
+        <v>221</v>
+      </c>
+      <c r="D155" t="s">
         <v>23</v>
       </c>
-      <c r="E155" s="2" t="s">
-        <v>25</v>
+      <c r="E155" t="s">
+        <v>148</v>
+      </c>
+      <c r="H155" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.35">
@@ -19979,24 +20018,24 @@
         <v>256</v>
       </c>
       <c r="C156" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D156" t="s">
-        <v>114</v>
+        <v>27</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>256</v>
       </c>
-      <c r="C157" t="s">
-        <v>243</v>
-      </c>
-      <c r="D157" t="s">
-        <v>117</v>
-      </c>
-      <c r="E157" t="s">
-        <v>133</v>
+      <c r="C157" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.35">
@@ -20004,32 +20043,57 @@
         <v>256</v>
       </c>
       <c r="C158" t="s">
+        <v>231</v>
+      </c>
+      <c r="D158" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
+        <v>256</v>
+      </c>
+      <c r="C159" t="s">
+        <v>243</v>
+      </c>
+      <c r="D159" t="s">
+        <v>117</v>
+      </c>
+      <c r="E159" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>256</v>
+      </c>
+      <c r="C160" t="s">
         <v>246</v>
       </c>
-      <c r="D158" t="s">
+      <c r="D160" t="s">
         <v>117</v>
       </c>
-      <c r="E158" t="s">
+      <c r="E160" t="s">
         <v>118</v>
       </c>
-      <c r="F158" t="s">
+      <c r="F160" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A161" t="s">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
         <v>257</v>
       </c>
-      <c r="C161" s="4" t="s">
+      <c r="C163" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="D161" s="4" t="s">
+      <c r="D163" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="E161" s="4" t="s">
+      <c r="E163" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="F161" s="4" t="s">
+      <c r="F163" s="4" t="s">
         <v>152</v>
       </c>
     </row>

--- a/Raw Data/CCDB data.xlsx
+++ b/Raw Data/CCDB data.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Photos" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="378">
   <si>
     <t>Micaria</t>
   </si>
@@ -195,9 +196,6 @@
     <t>CaS-A-S5-PT-1</t>
   </si>
   <si>
-    <t>CaS-A-3</t>
-  </si>
-  <si>
     <t>Alopecosa?</t>
   </si>
   <si>
@@ -432,9 +430,6 @@
     <t>PaPL-A15-O2-PT-2</t>
   </si>
   <si>
-    <t>Sphaeropthalma (Photopsis)</t>
-  </si>
-  <si>
     <t>Aven-July-22-2020-FF-10</t>
   </si>
   <si>
@@ -444,9 +439,6 @@
     <t>SiCr-Sept-16-FF-1</t>
   </si>
   <si>
-    <t>Pepsis?</t>
-  </si>
-  <si>
     <t>Mov-A16-O12-PT1</t>
   </si>
   <si>
@@ -558,9 +550,6 @@
     <t>CasS-July-10-2020-T5-SWP-2</t>
   </si>
   <si>
-    <t>hopper</t>
-  </si>
-  <si>
     <t>Aven-July-22-2020-T5-SS-1</t>
   </si>
   <si>
@@ -600,9 +589,6 @@
     <t>Apidae</t>
   </si>
   <si>
-    <t>Eucera?</t>
-  </si>
-  <si>
     <t>SiCr-July-22-2020-T4-SS-1</t>
   </si>
   <si>
@@ -1063,6 +1049,117 @@
   </si>
   <si>
     <t>Nicrophorus</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>Family</t>
+  </si>
+  <si>
+    <t>Genus</t>
+  </si>
+  <si>
+    <t>Tachypompilus</t>
+  </si>
+  <si>
+    <t>Prionyx</t>
+  </si>
+  <si>
+    <t>Eucera</t>
+  </si>
+  <si>
+    <t>names files J13</t>
+  </si>
+  <si>
+    <t>PaPl-J-O5-PT-1</t>
+  </si>
+  <si>
+    <t>immature</t>
+  </si>
+  <si>
+    <t>PaPL-J-O11-PT-1</t>
+  </si>
+  <si>
+    <t>Phoridae</t>
+  </si>
+  <si>
+    <t>PaPL-J-S10-PT-1</t>
+  </si>
+  <si>
+    <t>PaPl-J-S12-PT-1</t>
+  </si>
+  <si>
+    <t>Scopoides</t>
+  </si>
+  <si>
+    <t>Aven-July-22-2020-FF-2</t>
+  </si>
+  <si>
+    <t>Prionnyx</t>
+  </si>
+  <si>
+    <t>noctural sphaero</t>
+  </si>
+  <si>
+    <t>Aven-A11-S1-PT-1</t>
+  </si>
+  <si>
+    <t>Ashmeadiella</t>
+  </si>
+  <si>
+    <t>Arenivega?</t>
+  </si>
+  <si>
+    <t>Tortricidae</t>
+  </si>
+  <si>
+    <t>Aethes (seek ID)</t>
+  </si>
+  <si>
+    <t>likely teneb</t>
+  </si>
+  <si>
+    <t>is more likely teneb</t>
+  </si>
+  <si>
+    <t>Coal-July-17-2020-S4-PT-2</t>
+  </si>
+  <si>
+    <t>Coal-July-17-2020-S4-PT-3</t>
+  </si>
+  <si>
+    <t>Coal-July-17-2020-S5-PT-3</t>
+  </si>
+  <si>
+    <t>Triorophus</t>
+  </si>
+  <si>
+    <t>Coal-July-17-2020-S5-PT-1</t>
+  </si>
+  <si>
+    <t>Alydidae</t>
+  </si>
+  <si>
+    <t>Tollius</t>
+  </si>
+  <si>
+    <t>setosus</t>
+  </si>
+  <si>
+    <t>100 is goal</t>
+  </si>
+  <si>
+    <t>PaPL-A-MAL-1</t>
+  </si>
+  <si>
+    <t>Tachinidae</t>
+  </si>
+  <si>
+    <t>PaPl-J-O4-PT-1</t>
   </si>
 </sst>
 </file>
@@ -1414,16 +1511,1623 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD163"/>
+  <dimension ref="A1:O108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="A106" sqref="A106"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="17.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E1" t="s">
+        <v>343</v>
+      </c>
+      <c r="H1" t="s">
+        <v>344</v>
+      </c>
+      <c r="M1">
+        <f>COUNTA(C:C) - 1</f>
+        <v>90</v>
+      </c>
+      <c r="O1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A3" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>246</v>
+      </c>
+      <c r="B4"/>
+      <c r="C4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>246</v>
+      </c>
+      <c r="B6"/>
+      <c r="C6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B7"/>
+      <c r="C7" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>246</v>
+      </c>
+      <c r="B8"/>
+      <c r="C8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>246</v>
+      </c>
+      <c r="B9"/>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>246</v>
+      </c>
+      <c r="B10"/>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>246</v>
+      </c>
+      <c r="B11"/>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>246</v>
+      </c>
+      <c r="B12"/>
+      <c r="C12" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>246</v>
+      </c>
+      <c r="B13"/>
+      <c r="C13" t="s">
+        <v>174</v>
+      </c>
+      <c r="D13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" t="s">
+        <v>371</v>
+      </c>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>246</v>
+      </c>
+      <c r="B14"/>
+      <c r="C14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>245</v>
+      </c>
+      <c r="C18" t="s">
+        <v>199</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>245</v>
+      </c>
+      <c r="C19" t="s">
+        <v>185</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" t="s">
+        <v>186</v>
+      </c>
+      <c r="H19" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>245</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>245</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>245</v>
+      </c>
+      <c r="B22"/>
+      <c r="C22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>245</v>
+      </c>
+      <c r="B23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>245</v>
+      </c>
+      <c r="B24"/>
+      <c r="C24" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>245</v>
+      </c>
+      <c r="B25"/>
+      <c r="C25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>245</v>
+      </c>
+      <c r="B27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" t="s">
+        <v>39</v>
+      </c>
+      <c r="F27" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>245</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>245</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>245</v>
+      </c>
+      <c r="B30"/>
+      <c r="C30" t="s">
+        <v>227</v>
+      </c>
+      <c r="D30" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>245</v>
+      </c>
+      <c r="B31"/>
+      <c r="C31" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>245</v>
+      </c>
+      <c r="B33"/>
+      <c r="C33" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>245</v>
+      </c>
+      <c r="B34"/>
+      <c r="C34" t="s">
+        <v>171</v>
+      </c>
+      <c r="D34" t="s">
+        <v>109</v>
+      </c>
+      <c r="E34" t="s">
+        <v>172</v>
+      </c>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+    </row>
+    <row r="35" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>245</v>
+      </c>
+      <c r="B35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+    </row>
+    <row r="36" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>245</v>
+      </c>
+      <c r="B36"/>
+      <c r="C36" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="D36" t="s">
+        <v>116</v>
+      </c>
+      <c r="E36" t="s">
+        <v>117</v>
+      </c>
+      <c r="F36" t="s">
+        <v>149</v>
+      </c>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+    </row>
+    <row r="37" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+    </row>
+    <row r="38" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>247</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A40" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H40" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>247</v>
+      </c>
+      <c r="B41"/>
+      <c r="C41" t="s">
+        <v>218</v>
+      </c>
+      <c r="D41" t="s">
+        <v>23</v>
+      </c>
+      <c r="E41" t="s">
+        <v>145</v>
+      </c>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="B42"/>
+      <c r="C42" t="s">
+        <v>254</v>
+      </c>
+      <c r="D42" t="s">
+        <v>31</v>
+      </c>
+      <c r="E42" t="s">
+        <v>30</v>
+      </c>
+      <c r="F42"/>
+      <c r="G42"/>
+      <c r="H42" s="7" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>247</v>
+      </c>
+      <c r="B45"/>
+      <c r="C45" t="s">
+        <v>208</v>
+      </c>
+      <c r="D45" t="s">
+        <v>109</v>
+      </c>
+      <c r="E45" t="s">
+        <v>140</v>
+      </c>
+      <c r="F45"/>
+      <c r="G45"/>
+      <c r="H45" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="B46"/>
+      <c r="C46" t="s">
+        <v>253</v>
+      </c>
+      <c r="D46" t="s">
+        <v>116</v>
+      </c>
+      <c r="E46" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="B47"/>
+      <c r="C47" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" s="1"/>
+    </row>
+    <row r="49" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c r="C49" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+    </row>
+    <row r="51" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>251</v>
+      </c>
+      <c r="C52" t="s">
+        <v>152</v>
+      </c>
+      <c r="D52" t="s">
+        <v>23</v>
+      </c>
+      <c r="E52" t="s">
+        <v>145</v>
+      </c>
+      <c r="H52" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>251</v>
+      </c>
+      <c r="C53" t="s">
+        <v>216</v>
+      </c>
+      <c r="D53" t="s">
+        <v>23</v>
+      </c>
+      <c r="E53" t="s">
+        <v>145</v>
+      </c>
+      <c r="H53" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>251</v>
+      </c>
+      <c r="B54"/>
+      <c r="C54" t="s">
+        <v>222</v>
+      </c>
+      <c r="D54" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>251</v>
+      </c>
+      <c r="B55"/>
+      <c r="C55" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="B57"/>
+      <c r="C57" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" s="10" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>251</v>
+      </c>
+      <c r="B60"/>
+      <c r="C60" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="F60"/>
+      <c r="G60"/>
+      <c r="H60" t="s">
+        <v>372</v>
+      </c>
+      <c r="I60" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>251</v>
+      </c>
+      <c r="B61"/>
+      <c r="C61" t="s">
+        <v>180</v>
+      </c>
+      <c r="D61" t="s">
+        <v>45</v>
+      </c>
+      <c r="E61" s="1"/>
+    </row>
+    <row r="62" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="1"/>
+    </row>
+    <row r="63" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="1"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>250</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>250</v>
+      </c>
+      <c r="C65" t="s">
+        <v>194</v>
+      </c>
+      <c r="D65" t="s">
+        <v>23</v>
+      </c>
+      <c r="E65" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>250</v>
+      </c>
+      <c r="C66" t="s">
+        <v>190</v>
+      </c>
+      <c r="D66" t="s">
+        <v>31</v>
+      </c>
+      <c r="E66" t="s">
+        <v>30</v>
+      </c>
+      <c r="H66" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>250</v>
+      </c>
+      <c r="B67"/>
+      <c r="C67" t="s">
+        <v>195</v>
+      </c>
+      <c r="D67" t="s">
+        <v>109</v>
+      </c>
+      <c r="E67" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="69" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="70" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="71" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>248</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>248</v>
+      </c>
+      <c r="C73" t="s">
+        <v>214</v>
+      </c>
+      <c r="D73" t="s">
+        <v>23</v>
+      </c>
+      <c r="E73" t="s">
+        <v>186</v>
+      </c>
+      <c r="H73" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>248</v>
+      </c>
+      <c r="C74" t="s">
+        <v>236</v>
+      </c>
+      <c r="D74" t="s">
+        <v>23</v>
+      </c>
+      <c r="E74" t="s">
+        <v>186</v>
+      </c>
+      <c r="H74" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>248</v>
+      </c>
+      <c r="C75" t="s">
+        <v>170</v>
+      </c>
+      <c r="D75" t="s">
+        <v>23</v>
+      </c>
+      <c r="E75" t="s">
+        <v>145</v>
+      </c>
+      <c r="H75" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>248</v>
+      </c>
+      <c r="C76" t="s">
+        <v>133</v>
+      </c>
+      <c r="D76" t="s">
+        <v>23</v>
+      </c>
+      <c r="E76" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>248</v>
+      </c>
+      <c r="B77"/>
+      <c r="C77" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>248</v>
+      </c>
+      <c r="B78"/>
+      <c r="C78" t="s">
+        <v>240</v>
+      </c>
+      <c r="D78" t="s">
+        <v>9</v>
+      </c>
+      <c r="E78" t="s">
+        <v>39</v>
+      </c>
+      <c r="F78" s="10" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>248</v>
+      </c>
+      <c r="B79"/>
+      <c r="C79" t="s">
+        <v>191</v>
+      </c>
+      <c r="D79" t="s">
+        <v>9</v>
+      </c>
+      <c r="E79" t="s">
+        <v>8</v>
+      </c>
+      <c r="F79"/>
+      <c r="G79"/>
+      <c r="H79" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>248</v>
+      </c>
+      <c r="B81"/>
+      <c r="C81" t="s">
+        <v>211</v>
+      </c>
+      <c r="D81" t="s">
+        <v>9</v>
+      </c>
+      <c r="E81" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>248</v>
+      </c>
+      <c r="B82"/>
+      <c r="C82" t="s">
+        <v>206</v>
+      </c>
+      <c r="D82" t="s">
+        <v>45</v>
+      </c>
+      <c r="E82" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>248</v>
+      </c>
+      <c r="B83"/>
+      <c r="C83" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="87" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>244</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>244</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>244</v>
+      </c>
+      <c r="B90" t="s">
+        <v>75</v>
+      </c>
+      <c r="C90" t="s">
+        <v>74</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E90" t="s">
+        <v>27</v>
+      </c>
+      <c r="H90" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>244</v>
+      </c>
+      <c r="B91" t="s">
+        <v>72</v>
+      </c>
+      <c r="C91" t="s">
+        <v>71</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>244</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>244</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>244</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" t="s">
+        <v>183</v>
+      </c>
+      <c r="D94" t="s">
+        <v>23</v>
+      </c>
+      <c r="E94" t="s">
+        <v>27</v>
+      </c>
+      <c r="F94"/>
+      <c r="G94"/>
+      <c r="H94" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="B95" s="2"/>
+      <c r="C95" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="4" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>244</v>
+      </c>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F96" s="1"/>
+      <c r="H96" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>244</v>
+      </c>
+      <c r="B97" t="s">
+        <v>80</v>
+      </c>
+      <c r="C97" t="s">
+        <v>79</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F97" s="1"/>
+      <c r="H97" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>244</v>
+      </c>
+      <c r="B98" s="2"/>
+      <c r="C98" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F98" s="1"/>
+    </row>
+    <row r="99" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+    </row>
+    <row r="100" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+    </row>
+    <row r="101" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="1"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>249</v>
+      </c>
+      <c r="C102" t="s">
+        <v>162</v>
+      </c>
+      <c r="D102" t="s">
+        <v>23</v>
+      </c>
+      <c r="E102" t="s">
+        <v>163</v>
+      </c>
+      <c r="H102" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>249</v>
+      </c>
+      <c r="C103" t="s">
+        <v>136</v>
+      </c>
+      <c r="D103" t="s">
+        <v>23</v>
+      </c>
+      <c r="E103" t="s">
+        <v>22</v>
+      </c>
+      <c r="H103" s="10" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>249</v>
+      </c>
+      <c r="C104" t="s">
+        <v>168</v>
+      </c>
+      <c r="D104" t="s">
+        <v>23</v>
+      </c>
+      <c r="E104" t="s">
+        <v>145</v>
+      </c>
+      <c r="H104" s="10" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>249</v>
+      </c>
+      <c r="C105" t="s">
+        <v>203</v>
+      </c>
+      <c r="D105" t="s">
+        <v>23</v>
+      </c>
+      <c r="E105" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>249</v>
+      </c>
+      <c r="C106" t="s">
+        <v>144</v>
+      </c>
+      <c r="D106" t="s">
+        <v>23</v>
+      </c>
+      <c r="E106" t="s">
+        <v>145</v>
+      </c>
+      <c r="H106" t="s">
+        <v>146</v>
+      </c>
+      <c r="I106" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>249</v>
+      </c>
+      <c r="C107" t="s">
+        <v>165</v>
+      </c>
+      <c r="D107" t="s">
+        <v>9</v>
+      </c>
+      <c r="E107" t="s">
+        <v>8</v>
+      </c>
+      <c r="H107" t="s">
+        <v>166</v>
+      </c>
+      <c r="I107" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>249</v>
+      </c>
+      <c r="C108" t="s">
+        <v>139</v>
+      </c>
+      <c r="D108" t="s">
+        <v>109</v>
+      </c>
+      <c r="E108" t="s">
+        <v>140</v>
+      </c>
+      <c r="F108" t="s">
+        <v>141</v>
+      </c>
+      <c r="G108" t="s">
+        <v>142</v>
+      </c>
+      <c r="H108" t="s">
+        <v>143</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:XFD142"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="A111" sqref="A111:A112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="14.90625" customWidth="1"/>
-    <col min="3" max="3" width="16.1796875" customWidth="1"/>
+    <col min="3" max="3" width="22.453125" customWidth="1"/>
     <col min="4" max="4" width="14.08984375" customWidth="1"/>
     <col min="5" max="5" width="12.08984375" customWidth="1"/>
     <col min="8" max="8" width="10.26953125" customWidth="1"/>
@@ -1431,159 +3135,88 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="L2">
         <f>COUNTA(C:C)-1</f>
-        <v>143</v>
+        <v>69</v>
       </c>
       <c r="N2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>249</v>
-      </c>
-      <c r="B3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>39</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N4" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>249</v>
-      </c>
-      <c r="B5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>249</v>
-      </c>
-      <c r="B6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>249</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>27</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D8" t="s">
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>2</v>
@@ -1592,96 +3225,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>249</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B11" s="2"/>
-      <c r="C11" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>249</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>249</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5" t="s">
-        <v>95</v>
-      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>2</v>
@@ -1690,11 +3259,11 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>2</v>
@@ -1703,78 +3272,45 @@
     </row>
     <row r="17" spans="1:16384" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:16384" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D18" t="s">
         <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16384" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>249</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" t="s">
-        <v>187</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" t="s">
-        <v>27</v>
-      </c>
-      <c r="H19" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:16384" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16384" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>249</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>198</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:16384" x14ac:dyDescent="0.35">
@@ -18170,67 +19706,50 @@
     </row>
     <row r="24" spans="1:16384" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:16384" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D25" t="s">
         <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H25" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16384" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>250</v>
-      </c>
-      <c r="B26" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:16384" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>53</v>
@@ -18247,1854 +19766,916 @@
     </row>
     <row r="28" spans="1:16384" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>250</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>50</v>
+        <v>245</v>
       </c>
       <c r="D28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>245</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16384" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>250</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16384" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>250</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16384" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>250</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E31" t="s">
-        <v>44</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16384" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>250</v>
-      </c>
-      <c r="B32" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32" t="s">
-        <v>40</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>250</v>
-      </c>
-      <c r="B33" t="s">
-        <v>38</v>
-      </c>
-      <c r="C33" t="s">
-        <v>37</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>250</v>
-      </c>
-      <c r="B34" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34" t="s">
-        <v>35</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="E34" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>250</v>
-      </c>
-      <c r="C35" t="s">
-        <v>32</v>
-      </c>
-      <c r="D35" t="s">
-        <v>31</v>
-      </c>
-      <c r="E35" t="s">
-        <v>30</v>
-      </c>
-      <c r="H35" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>250</v>
-      </c>
-      <c r="C36" t="s">
+        <v>245</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>245</v>
+      </c>
+      <c r="C37" t="s">
         <v>28</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>250</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>23</v>
+        <v>116</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+        <v>117</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>250</v>
-      </c>
-      <c r="C39" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C39" t="s">
+        <v>131</v>
+      </c>
+      <c r="D39" t="s">
+        <v>116</v>
+      </c>
+      <c r="E39" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>245</v>
+      </c>
+      <c r="C41" t="s">
+        <v>159</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E39" s="1"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>250</v>
-      </c>
-      <c r="C40" t="s">
-        <v>28</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>250</v>
-      </c>
-      <c r="C41" s="2" t="s">
+      <c r="E41" s="1"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>245</v>
+      </c>
+      <c r="C43" t="s">
+        <v>173</v>
+      </c>
+      <c r="D43" t="s">
+        <v>45</v>
+      </c>
+      <c r="E43" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>245</v>
+      </c>
+      <c r="C45" t="s">
+        <v>197</v>
+      </c>
+      <c r="D45" t="s">
         <v>116</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="E45" t="s">
         <v>117</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="F45" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>245</v>
+      </c>
+      <c r="C46" t="s">
+        <v>198</v>
+      </c>
+      <c r="D46" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>245</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F48" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>250</v>
-      </c>
-      <c r="C42" t="s">
-        <v>132</v>
-      </c>
-      <c r="D42" t="s">
-        <v>117</v>
-      </c>
-      <c r="E42" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>250</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E43" s="1"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>250</v>
-      </c>
-      <c r="C44" t="s">
-        <v>162</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E44" s="1"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>250</v>
-      </c>
-      <c r="C45" t="s">
-        <v>174</v>
-      </c>
-      <c r="D45" t="s">
-        <v>110</v>
-      </c>
-      <c r="E45" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>250</v>
-      </c>
-      <c r="C46" t="s">
-        <v>176</v>
-      </c>
-      <c r="D46" t="s">
-        <v>45</v>
-      </c>
-      <c r="E46" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>250</v>
-      </c>
-      <c r="C47" t="s">
-        <v>189</v>
-      </c>
-      <c r="D47" t="s">
-        <v>23</v>
-      </c>
-      <c r="E47" t="s">
-        <v>190</v>
-      </c>
-      <c r="H47" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>250</v>
-      </c>
-      <c r="C48" t="s">
-        <v>202</v>
-      </c>
-      <c r="D48" t="s">
-        <v>117</v>
-      </c>
-      <c r="E48" t="s">
-        <v>118</v>
-      </c>
-      <c r="F48" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C49" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D49" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>250</v>
-      </c>
-      <c r="C50" t="s">
-        <v>204</v>
-      </c>
-      <c r="D50" t="s">
-        <v>23</v>
-      </c>
-      <c r="E50" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>250</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D51" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="F50" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C52" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="D52" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>250</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D53" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E52" t="s">
         <v>117</v>
       </c>
-      <c r="E53" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>250</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="D54" t="s">
-        <v>117</v>
-      </c>
-      <c r="E54" t="s">
-        <v>118</v>
-      </c>
-      <c r="F54" t="s">
-        <v>152</v>
+      <c r="F52" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C55" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="D55" t="s">
+        <v>116</v>
+      </c>
+      <c r="E55" t="s">
         <v>117</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>118</v>
       </c>
-      <c r="F55" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>250</v>
-      </c>
-      <c r="C56" t="s">
-        <v>232</v>
-      </c>
-      <c r="D56" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>250</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2" t="s">
-        <v>146</v>
-      </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>250</v>
-      </c>
-      <c r="C58" t="s">
-        <v>247</v>
-      </c>
-      <c r="D58" t="s">
-        <v>117</v>
-      </c>
-      <c r="E58" t="s">
-        <v>118</v>
-      </c>
-      <c r="F58" t="s">
-        <v>119</v>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>246</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H60" t="s">
+        <v>18</v>
+      </c>
+      <c r="I60" t="s">
+        <v>17</v>
+      </c>
+      <c r="L60" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>251</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H62" t="s">
-        <v>21</v>
-      </c>
-      <c r="I62" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>251</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D63" s="1" t="s">
+      <c r="A61" t="s">
+        <v>246</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="E61" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H63" t="s">
-        <v>18</v>
-      </c>
-      <c r="I63" t="s">
-        <v>17</v>
-      </c>
-      <c r="L63" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>251</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H64" t="s">
+      <c r="H61" t="s">
         <v>15</v>
       </c>
-      <c r="I64" t="s">
+      <c r="I61" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C65" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
-        <v>251</v>
-      </c>
-      <c r="C66" t="s">
-        <v>12</v>
-      </c>
-      <c r="D66" t="s">
-        <v>9</v>
-      </c>
-      <c r="E66" t="s">
-        <v>8</v>
-      </c>
-      <c r="H66" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
-        <v>251</v>
-      </c>
-      <c r="C67" t="s">
-        <v>10</v>
-      </c>
-      <c r="D67" t="s">
-        <v>9</v>
-      </c>
-      <c r="E67" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
-        <v>251</v>
-      </c>
-      <c r="C68" t="s">
-        <v>7</v>
-      </c>
-      <c r="D68" t="s">
         <v>2</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E65" t="s">
         <v>6</v>
       </c>
-      <c r="H68" t="s">
+      <c r="H65" t="s">
         <v>5</v>
       </c>
-      <c r="I68" t="s">
+      <c r="I65" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C69" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="D69" t="s">
-        <v>23</v>
+        <v>116</v>
       </c>
       <c r="E69" t="s">
-        <v>22</v>
+        <v>117</v>
+      </c>
+      <c r="F69" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>251</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D70" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C70" t="s">
+        <v>124</v>
+      </c>
+      <c r="D70" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E70" s="2" t="s">
+      <c r="E70" s="6" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
-        <v>251</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D71" t="s">
-        <v>23</v>
-      </c>
-      <c r="E71" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>251</v>
-      </c>
-      <c r="C72" t="s">
-        <v>120</v>
-      </c>
-      <c r="D72" t="s">
-        <v>117</v>
-      </c>
-      <c r="E72" t="s">
-        <v>118</v>
-      </c>
-      <c r="F72" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
-        <v>251</v>
-      </c>
-      <c r="C73" t="s">
-        <v>125</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E73" s="6" t="s">
-        <v>8</v>
+        <v>246</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C74" t="s">
-        <v>126</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>127</v>
+        <v>134</v>
+      </c>
+      <c r="D74" t="s">
+        <v>116</v>
+      </c>
+      <c r="E74" t="s">
+        <v>117</v>
+      </c>
+      <c r="F74" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>251</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>129</v>
+        <v>246</v>
+      </c>
+      <c r="C75" t="s">
+        <v>148</v>
+      </c>
+      <c r="D75" t="s">
+        <v>116</v>
+      </c>
+      <c r="E75" t="s">
+        <v>117</v>
+      </c>
+      <c r="F75" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C76" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="D76" t="s">
-        <v>23</v>
+        <v>113</v>
       </c>
       <c r="E76" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
-        <v>251</v>
-      </c>
-      <c r="C77" t="s">
-        <v>136</v>
-      </c>
-      <c r="D77" t="s">
-        <v>117</v>
-      </c>
-      <c r="E77" t="s">
-        <v>118</v>
-      </c>
-      <c r="F77" t="s">
-        <v>137</v>
+        <v>157</v>
+      </c>
+      <c r="H76" t="s">
+        <v>155</v>
+      </c>
+      <c r="I76" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C78" t="s">
-        <v>151</v>
+        <v>200</v>
       </c>
       <c r="D78" t="s">
+        <v>116</v>
+      </c>
+      <c r="E78" t="s">
         <v>117</v>
       </c>
-      <c r="E78" t="s">
+      <c r="F78" t="s">
         <v>118</v>
-      </c>
-      <c r="F78" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C79" t="s">
-        <v>157</v>
+        <v>220</v>
       </c>
       <c r="D79" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E79" t="s">
-        <v>160</v>
-      </c>
-      <c r="H79" t="s">
-        <v>158</v>
-      </c>
-      <c r="I79" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
-        <v>251</v>
-      </c>
-      <c r="C80" t="s">
-        <v>178</v>
-      </c>
-      <c r="D80" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
-        <v>251</v>
-      </c>
-      <c r="C81" t="s">
-        <v>205</v>
-      </c>
-      <c r="D81" t="s">
-        <v>117</v>
-      </c>
-      <c r="E81" t="s">
-        <v>118</v>
-      </c>
-      <c r="F81" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
-        <v>251</v>
-      </c>
-      <c r="C82" t="s">
-        <v>225</v>
-      </c>
-      <c r="D82" t="s">
-        <v>117</v>
-      </c>
-      <c r="E82" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
-        <v>251</v>
-      </c>
-      <c r="C83" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>247</v>
+      </c>
+      <c r="C84" t="s">
+        <v>3</v>
+      </c>
+      <c r="D84" t="s">
+        <v>2</v>
+      </c>
+      <c r="E84" t="s">
+        <v>1</v>
+      </c>
+      <c r="H84" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>247</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D86" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>247</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>247</v>
+      </c>
+      <c r="C88" t="s">
         <v>234</v>
       </c>
-      <c r="D83" t="s">
-        <v>45</v>
-      </c>
-      <c r="E83" t="s">
+      <c r="D88" t="s">
         <v>235</v>
       </c>
-      <c r="H83" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
-        <v>252</v>
-      </c>
-      <c r="C87" t="s">
-        <v>3</v>
-      </c>
-      <c r="D87" t="s">
+    </row>
+    <row r="92" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="93" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="H94" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A97" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="C97" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="D97" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E97" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="C98" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="D98" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E87" t="s">
+      <c r="E98" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H87" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
-        <v>252</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D88" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E88" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F88" s="4"/>
-      <c r="G88" s="4"/>
-      <c r="H88" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
-        <v>252</v>
-      </c>
-      <c r="C89" s="4" t="s">
+      <c r="H98" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="100" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="D100" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D89" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
-        <v>252</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D90" s="2" t="s">
+      <c r="E100" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="H100" s="1"/>
+    </row>
+    <row r="101" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="C101" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="D101" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E90" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F90" s="2"/>
-      <c r="G90" s="2"/>
-      <c r="H90" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
-        <v>252</v>
-      </c>
-      <c r="C91" t="s">
-        <v>213</v>
-      </c>
-      <c r="D91" t="s">
-        <v>110</v>
-      </c>
-      <c r="E91" t="s">
-        <v>143</v>
-      </c>
-      <c r="H91" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
-        <v>252</v>
-      </c>
-      <c r="C92" t="s">
-        <v>223</v>
-      </c>
-      <c r="D92" t="s">
+      <c r="E101" s="1"/>
+      <c r="H101" s="1"/>
+    </row>
+    <row r="102" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="C102" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="H103" s="1"/>
+    </row>
+    <row r="104" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>248</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D105" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E92" t="s">
-        <v>148</v>
-      </c>
-      <c r="H92" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
-        <v>252</v>
-      </c>
-      <c r="C93" t="s">
+      <c r="E105" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>248</v>
+      </c>
+      <c r="C106" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="D93" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A94" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="C94" t="s">
-        <v>258</v>
-      </c>
-      <c r="D94" t="s">
-        <v>117</v>
-      </c>
-      <c r="E94" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A95" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="C95" t="s">
-        <v>259</v>
-      </c>
-      <c r="D95" t="s">
-        <v>31</v>
-      </c>
-      <c r="E95" t="s">
-        <v>30</v>
-      </c>
-      <c r="H95" s="7" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A96" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="C96" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="C97" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="D97" s="1" t="s">
+      <c r="D106" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="C98" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="H98" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="I98" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="C99" s="10" t="s">
-        <v>330</v>
-      </c>
-      <c r="H99" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="C100" s="10" t="s">
-        <v>331</v>
-      </c>
-      <c r="D100" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E100" s="7" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="D101" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E101" s="7" t="s">
+      <c r="E106" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A102" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="C102" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="D102" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E102" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="C103" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E103" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="C104" s="10" t="s">
-        <v>336</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="C105" s="10" t="s">
-        <v>337</v>
-      </c>
-      <c r="D105" s="1" t="s">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A108" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C108" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="D108" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="E108" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="F108" s="10"/>
+      <c r="G108" s="10"/>
+      <c r="H108" s="10"/>
+      <c r="I108" s="10"/>
+      <c r="J108" s="10" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A109" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C109" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="111" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="D111" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E105" s="1" t="s">
+      <c r="E111" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H105" s="1" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="C106" s="10" t="s">
-        <v>339</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H106" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="C107" s="10" t="s">
-        <v>340</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E107" s="10" t="s">
-        <v>342</v>
-      </c>
-      <c r="H107" s="1"/>
-    </row>
-    <row r="108" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="C108" s="10" t="s">
-        <v>341</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E108" s="1"/>
-      <c r="H108" s="1"/>
-    </row>
-    <row r="109" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="C109" s="10" t="s">
-        <v>343</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="H109" s="1" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="D110" s="1"/>
-      <c r="E110" s="1"/>
-      <c r="H110" s="1"/>
-    </row>
-    <row r="111" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A112" t="s">
-        <v>253</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A113" t="s">
-        <v>253</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A114" t="s">
-        <v>253</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A115" t="s">
-        <v>253</v>
-      </c>
-      <c r="C115" t="s">
-        <v>134</v>
-      </c>
-      <c r="D115" t="s">
-        <v>23</v>
-      </c>
-      <c r="E115" t="s">
-        <v>27</v>
-      </c>
-      <c r="H115" t="s">
-        <v>135</v>
-      </c>
+      <c r="F111" s="4"/>
+      <c r="G111" s="4"/>
+      <c r="H111" s="3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C112" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E112" s="1"/>
+    </row>
+    <row r="113" spans="1:8" s="10" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C116" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D116" t="s">
-        <v>23</v>
+        <v>161</v>
       </c>
       <c r="E116" t="s">
-        <v>148</v>
+        <v>178</v>
+      </c>
+      <c r="H116" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C117" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>8</v>
-      </c>
-      <c r="H117" t="s">
-        <v>169</v>
+        <v>117</v>
+      </c>
+      <c r="F117" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C118" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="D118" t="s">
-        <v>45</v>
+        <v>116</v>
       </c>
       <c r="E118" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A119" t="s">
-        <v>253</v>
-      </c>
-      <c r="C119" t="s">
-        <v>216</v>
-      </c>
-      <c r="D119" t="s">
-        <v>9</v>
-      </c>
-      <c r="E119" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A120" t="s">
-        <v>253</v>
-      </c>
-      <c r="C120" t="s">
-        <v>217</v>
-      </c>
-      <c r="D120" t="s">
-        <v>110</v>
-      </c>
-      <c r="E120" t="s">
-        <v>218</v>
+        <v>117</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C121" t="s">
-        <v>219</v>
+        <v>137</v>
       </c>
       <c r="D121" t="s">
         <v>23</v>
       </c>
       <c r="E121" t="s">
-        <v>190</v>
-      </c>
-      <c r="H121" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A122" t="s">
-        <v>253</v>
-      </c>
-      <c r="C122" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="D122" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E122" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A123" t="s">
-        <v>253</v>
-      </c>
-      <c r="C123" t="s">
-        <v>241</v>
-      </c>
-      <c r="D123" t="s">
-        <v>23</v>
-      </c>
-      <c r="E123" t="s">
-        <v>190</v>
-      </c>
-      <c r="H123" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A124" t="s">
-        <v>253</v>
-      </c>
-      <c r="C124" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="D124" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E124" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A125" t="s">
-        <v>253</v>
-      </c>
-      <c r="C125" t="s">
-        <v>245</v>
-      </c>
-      <c r="D125" t="s">
-        <v>9</v>
-      </c>
-      <c r="E125" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A128" t="s">
-        <v>254</v>
-      </c>
-      <c r="C128" t="s">
-        <v>138</v>
-      </c>
-      <c r="D128" t="s">
-        <v>23</v>
-      </c>
-      <c r="E128" t="s">
         <v>22</v>
       </c>
-      <c r="H128" t="s">
-        <v>139</v>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>250</v>
+      </c>
+      <c r="C126" t="s">
+        <v>228</v>
+      </c>
+      <c r="D126" t="s">
+        <v>116</v>
+      </c>
+      <c r="E126" t="s">
+        <v>117</v>
+      </c>
+      <c r="F126" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>254</v>
-      </c>
-      <c r="C129" t="s">
-        <v>142</v>
-      </c>
-      <c r="D129" t="s">
-        <v>110</v>
-      </c>
-      <c r="E129" t="s">
-        <v>143</v>
-      </c>
-      <c r="F129" t="s">
-        <v>144</v>
-      </c>
-      <c r="G129" t="s">
-        <v>145</v>
-      </c>
-      <c r="H129" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A130" t="s">
-        <v>254</v>
-      </c>
-      <c r="C130" t="s">
-        <v>147</v>
-      </c>
-      <c r="D130" t="s">
-        <v>23</v>
-      </c>
-      <c r="E130" t="s">
-        <v>148</v>
-      </c>
-      <c r="H130" t="s">
-        <v>149</v>
-      </c>
-      <c r="I130" t="s">
+        <v>251</v>
+      </c>
+      <c r="C129" s="4" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A131" t="s">
-        <v>254</v>
-      </c>
-      <c r="C131" t="s">
-        <v>165</v>
-      </c>
-      <c r="D131" t="s">
-        <v>23</v>
-      </c>
-      <c r="E131" t="s">
-        <v>166</v>
-      </c>
-      <c r="H131" t="s">
-        <v>167</v>
+      <c r="D129" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C132" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
-      </c>
-      <c r="E132" t="s">
-        <v>8</v>
-      </c>
-      <c r="H132" t="s">
-        <v>169</v>
-      </c>
-      <c r="I132" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C133" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D133" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="E133" t="s">
-        <v>148</v>
+        <v>8</v>
+      </c>
+      <c r="H133" t="s">
+        <v>166</v>
+      </c>
+      <c r="I133" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C134" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D134" t="s">
-        <v>164</v>
+        <v>116</v>
       </c>
       <c r="E134" t="s">
-        <v>182</v>
-      </c>
-      <c r="H134" t="s">
-        <v>183</v>
+        <v>117</v>
+      </c>
+      <c r="F134" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C135" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="D135" t="s">
-        <v>117</v>
-      </c>
-      <c r="E135" t="s">
-        <v>118</v>
-      </c>
-      <c r="F135" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A136" t="s">
-        <v>254</v>
-      </c>
-      <c r="C136" t="s">
-        <v>194</v>
-      </c>
-      <c r="D136" t="s">
-        <v>117</v>
-      </c>
-      <c r="E136" t="s">
-        <v>118</v>
+        <v>161</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C137" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="D137" t="s">
-        <v>23</v>
-      </c>
-      <c r="E137" t="s">
-        <v>22</v>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>251</v>
+      </c>
+      <c r="C138" t="s">
+        <v>238</v>
+      </c>
+      <c r="D138" t="s">
+        <v>116</v>
+      </c>
+      <c r="E138" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C139" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="D139" t="s">
-        <v>23</v>
+        <v>116</v>
       </c>
       <c r="E139" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A140" t="s">
-        <v>255</v>
-      </c>
-      <c r="C140" t="s">
-        <v>195</v>
-      </c>
-      <c r="D140" t="s">
-        <v>31</v>
-      </c>
-      <c r="E140" t="s">
-        <v>30</v>
-      </c>
-      <c r="H140" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A141" t="s">
-        <v>255</v>
-      </c>
-      <c r="C141" t="s">
-        <v>199</v>
-      </c>
-      <c r="D141" t="s">
-        <v>23</v>
-      </c>
-      <c r="E141" t="s">
-        <v>22</v>
+        <v>117</v>
+      </c>
+      <c r="F139" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>255</v>
-      </c>
-      <c r="C142" t="s">
-        <v>200</v>
-      </c>
-      <c r="D142" t="s">
-        <v>110</v>
-      </c>
-      <c r="E142" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A143" t="s">
-        <v>255</v>
-      </c>
-      <c r="C143" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="D143" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E143" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A144" t="s">
-        <v>255</v>
-      </c>
-      <c r="C144" t="s">
-        <v>233</v>
-      </c>
-      <c r="D144" t="s">
+        <v>252</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E142" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="E144" t="s">
-        <v>118</v>
-      </c>
-      <c r="F144" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A147" t="s">
-        <v>256</v>
-      </c>
-      <c r="C147" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="D147" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="E147" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="F147" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A148" t="s">
-        <v>256</v>
-      </c>
-      <c r="C148" t="s">
-        <v>155</v>
-      </c>
-      <c r="D148" t="s">
-        <v>23</v>
-      </c>
-      <c r="E148" t="s">
-        <v>148</v>
-      </c>
-      <c r="H148" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A149" t="s">
-        <v>256</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A150" t="s">
-        <v>256</v>
-      </c>
-      <c r="C150" t="s">
-        <v>163</v>
-      </c>
-      <c r="D150" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A151" t="s">
-        <v>256</v>
-      </c>
-      <c r="C151" t="s">
-        <v>172</v>
-      </c>
-      <c r="D151" t="s">
-        <v>9</v>
-      </c>
-      <c r="E151" t="s">
-        <v>8</v>
-      </c>
-      <c r="H151" t="s">
-        <v>169</v>
-      </c>
-      <c r="I151" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A152" t="s">
-        <v>256</v>
-      </c>
-      <c r="C152" t="s">
-        <v>179</v>
-      </c>
-      <c r="D152" t="s">
-        <v>117</v>
-      </c>
-      <c r="E152" t="s">
-        <v>118</v>
-      </c>
-      <c r="F152" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A153" t="s">
-        <v>256</v>
-      </c>
-      <c r="C153" t="s">
-        <v>180</v>
-      </c>
-      <c r="D153" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A154" t="s">
-        <v>256</v>
-      </c>
-      <c r="C154" t="s">
-        <v>184</v>
-      </c>
-      <c r="D154" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A155" t="s">
-        <v>256</v>
-      </c>
-      <c r="C155" t="s">
-        <v>221</v>
-      </c>
-      <c r="D155" t="s">
-        <v>23</v>
-      </c>
-      <c r="E155" t="s">
-        <v>148</v>
-      </c>
-      <c r="H155" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A156" t="s">
-        <v>256</v>
-      </c>
-      <c r="C156" t="s">
-        <v>227</v>
-      </c>
-      <c r="D156" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A157" t="s">
-        <v>256</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A158" t="s">
-        <v>256</v>
-      </c>
-      <c r="C158" t="s">
-        <v>231</v>
-      </c>
-      <c r="D158" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A159" t="s">
-        <v>256</v>
-      </c>
-      <c r="C159" t="s">
-        <v>243</v>
-      </c>
-      <c r="D159" t="s">
-        <v>117</v>
-      </c>
-      <c r="E159" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A160" t="s">
-        <v>256</v>
-      </c>
-      <c r="C160" t="s">
-        <v>246</v>
-      </c>
-      <c r="D160" t="s">
-        <v>117</v>
-      </c>
-      <c r="E160" t="s">
-        <v>118</v>
-      </c>
-      <c r="F160" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A163" t="s">
-        <v>257</v>
-      </c>
-      <c r="C163" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="D163" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="E163" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="F163" s="4" t="s">
-        <v>152</v>
+      <c r="F142" s="4" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -20102,11 +20683,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -20118,7 +20699,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="I1">
         <f>COUNTA(B:B) -1</f>
@@ -20127,170 +20708,170 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="E6" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B7" s="2" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="E7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="F7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="E9" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F9" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="K9" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B10" s="2" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B11" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B17" s="4" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="E17" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="G19" s="2">
         <v>9</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B20" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B21" s="1" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="E21" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B22" s="1" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="H22" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B23" s="1" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B24" s="1" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
@@ -20298,62 +20879,62 @@
         <v>9</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B26" s="1" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B27" s="1" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E31" s="7">
         <v>16</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="G31" s="7">
         <v>8</v>
       </c>
       <c r="I31" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.35">
@@ -20361,7 +20942,7 @@
         <v>45</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.35">
@@ -20369,10 +20950,10 @@
         <v>45</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.35">
@@ -20385,17 +20966,17 @@
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B40" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
       <c r="E40" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.35">
@@ -20406,38 +20987,38 @@
         <v>54</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="G41" s="4">
         <v>27</v>
       </c>
       <c r="H41" s="4"/>
       <c r="I41" s="4" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B42" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="G42" s="7">
         <v>27</v>
       </c>
       <c r="H42" s="7"/>
       <c r="I42" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.35">
@@ -20445,123 +21026,123 @@
         <v>45</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
       <c r="F44" s="5" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="I44" s="5">
         <v>10</v>
       </c>
       <c r="J44" s="5"/>
       <c r="K44" s="5" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B46" t="s">
         <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D46" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="F46" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="B49" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="B49" s="9" t="s">
-        <v>321</v>
-      </c>
       <c r="C49" s="1" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="F50" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B51" t="s">
         <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="F52" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>
